--- a/de.bund.bfr.knime.fsklab.nodes/resources/vocabularies/Sampling point.xlsx
+++ b/de.bund.bfr.knime.fsklab.nodes/resources/vocabularies/Sampling point.xlsx
@@ -26,454 +26,454 @@
     <t>Comment</t>
   </si>
   <si>
+    <t>Air transport</t>
+  </si>
+  <si>
+    <t>E840A</t>
+  </si>
+  <si>
+    <t>Aquaculture</t>
+  </si>
+  <si>
+    <t>E152A</t>
+  </si>
+  <si>
+    <t>Bee hives</t>
+  </si>
+  <si>
+    <t>E112A</t>
+  </si>
+  <si>
     <t>Border inspection activities</t>
   </si>
   <si>
     <t>E010A</t>
   </si>
   <si>
+    <t>Breeding</t>
+  </si>
+  <si>
+    <t>E121A</t>
+  </si>
+  <si>
+    <t>Camp, picnic</t>
+  </si>
+  <si>
+    <t>E960A</t>
+  </si>
+  <si>
+    <t>Canteen or workplace catering</t>
+  </si>
+  <si>
+    <t>E940A</t>
+  </si>
+  <si>
+    <t>Catering</t>
+  </si>
+  <si>
+    <t>E900A</t>
+  </si>
+  <si>
+    <t>Catering on aircraft, ship, train</t>
+  </si>
+  <si>
+    <t>E990A</t>
+  </si>
+  <si>
+    <t>Cold storage</t>
+  </si>
+  <si>
+    <t>E710A</t>
+  </si>
+  <si>
+    <t>Conservation Facilities</t>
+  </si>
+  <si>
+    <t>E720A</t>
+  </si>
+  <si>
+    <t>Disseminated cases</t>
+  </si>
+  <si>
+    <t>E970A</t>
+  </si>
+  <si>
+    <t>Distribution: wholesale and retail sale</t>
+  </si>
+  <si>
+    <t>E500A</t>
+  </si>
+  <si>
+    <t>Farming</t>
+  </si>
+  <si>
+    <t>E101A</t>
+  </si>
+  <si>
+    <t>Feed mill</t>
+  </si>
+  <si>
+    <t>E354A</t>
+  </si>
+  <si>
+    <t>Fish freezing</t>
+  </si>
+  <si>
+    <t>E321A</t>
+  </si>
+  <si>
+    <t>Fish processing</t>
+  </si>
+  <si>
+    <t>E320A</t>
+  </si>
+  <si>
+    <t>Fish processing activities, other than freezing</t>
+  </si>
+  <si>
+    <t>E329A</t>
+  </si>
+  <si>
+    <t>Fishery activities</t>
+  </si>
+  <si>
+    <t>E150A</t>
+  </si>
+  <si>
+    <t>Fishing and fish processing</t>
+  </si>
+  <si>
+    <t>E151A</t>
+  </si>
+  <si>
+    <t>Game handling estabilishment</t>
+  </si>
+  <si>
+    <t>E170A</t>
+  </si>
+  <si>
+    <t>Growing crops</t>
+  </si>
+  <si>
+    <t>E110A</t>
+  </si>
+  <si>
+    <t>Hatchery</t>
+  </si>
+  <si>
+    <t>E160A</t>
+  </si>
+  <si>
+    <t>Hospital or medical care facility</t>
+  </si>
+  <si>
+    <t>E210A</t>
+  </si>
+  <si>
+    <t>Household</t>
+  </si>
+  <si>
+    <t>E230A</t>
+  </si>
+  <si>
+    <t>Hunting</t>
+  </si>
+  <si>
+    <t>E180A</t>
+  </si>
+  <si>
+    <t>Import activities</t>
+  </si>
+  <si>
+    <t>E530A</t>
+  </si>
+  <si>
+    <t>Insemination</t>
+  </si>
+  <si>
+    <t>E132A</t>
+  </si>
+  <si>
+    <t>Manufacture of  compound feedingstuffs</t>
+  </si>
+  <si>
+    <t>E351A</t>
+  </si>
+  <si>
+    <t>Manufacture of feed additives and pre-mixtures</t>
+  </si>
+  <si>
+    <t>E352A</t>
+  </si>
+  <si>
+    <t>Manufacture of prepared animal feeds</t>
+  </si>
+  <si>
+    <t>E350A</t>
+  </si>
+  <si>
+    <t>Manufacture of prepared petfoods</t>
+  </si>
+  <si>
+    <t>E353A</t>
+  </si>
+  <si>
+    <t>Manufacturing</t>
+  </si>
+  <si>
+    <t>E300A</t>
+  </si>
+  <si>
+    <t>Meat cutting</t>
+  </si>
+  <si>
+    <t>E312A</t>
+  </si>
+  <si>
+    <t>Meat mincing</t>
+  </si>
+  <si>
+    <t>E313A</t>
+  </si>
+  <si>
+    <t>Meat preparing</t>
+  </si>
+  <si>
+    <t>E314A</t>
+  </si>
+  <si>
+    <t>Meat processing</t>
+  </si>
+  <si>
+    <t>E310A</t>
+  </si>
+  <si>
+    <t>Mechanical separation of meat</t>
+  </si>
+  <si>
+    <t>E315A</t>
+  </si>
+  <si>
+    <t>Mobile retailer, market-street vendor</t>
+  </si>
+  <si>
+    <t>E920A</t>
+  </si>
+  <si>
+    <t>Natural habitat</t>
+  </si>
+  <si>
+    <t>E191A</t>
+  </si>
+  <si>
+    <t>Not specified</t>
+  </si>
+  <si>
+    <t>E098A</t>
+  </si>
+  <si>
+    <t>Other activities, n.e.c.</t>
+  </si>
+  <si>
+    <t>E099A</t>
+  </si>
+  <si>
+    <t>Other animal production support activity n.e.c</t>
+  </si>
+  <si>
+    <t>E139A</t>
+  </si>
+  <si>
+    <t>Other meat processing activities</t>
+  </si>
+  <si>
+    <t>E319A</t>
+  </si>
+  <si>
+    <t>Other processing activities, N.E.C.</t>
+  </si>
+  <si>
+    <t>E355A</t>
+  </si>
+  <si>
+    <t>Packaging</t>
+  </si>
+  <si>
+    <t>E600A</t>
+  </si>
+  <si>
+    <t>Primary production</t>
+  </si>
+  <si>
+    <t>E100A</t>
+  </si>
+  <si>
+    <t>Processing plant</t>
+  </si>
+  <si>
+    <t>E301A</t>
+  </si>
+  <si>
+    <t>Rail transport</t>
+  </si>
+  <si>
+    <t>E820A</t>
+  </si>
+  <si>
+    <t>Re-wrapping</t>
+  </si>
+  <si>
+    <t>E610A</t>
+  </si>
+  <si>
+    <t>Rearing of animals</t>
+  </si>
+  <si>
+    <t>E120A</t>
+  </si>
+  <si>
+    <t>Residential institution (nursing home, prison, boarding school)</t>
+  </si>
+  <si>
+    <t>E220A</t>
+  </si>
+  <si>
+    <t>Restaurant, Cafe, Pub, Bar, Hotel, Catering service</t>
+  </si>
+  <si>
+    <t>E910A</t>
+  </si>
+  <si>
+    <t>Retail sale</t>
+  </si>
+  <si>
+    <t>E520A</t>
+  </si>
+  <si>
+    <t>Road transport</t>
+  </si>
+  <si>
+    <t>E810A</t>
+  </si>
+  <si>
+    <t>School, kindergarten</t>
+  </si>
+  <si>
+    <t>E240A</t>
+  </si>
+  <si>
+    <t>Slaughtering</t>
+  </si>
+  <si>
+    <t>E311A</t>
+  </si>
+  <si>
+    <t>Storage</t>
+  </si>
+  <si>
+    <t>E700A</t>
+  </si>
+  <si>
+    <t>Support activities for crop production</t>
+  </si>
+  <si>
+    <t>E131A</t>
+  </si>
+  <si>
+    <t>Support activities to agriculture</t>
+  </si>
+  <si>
+    <t>E130A</t>
+  </si>
+  <si>
+    <t>Take-away or fast-food outlet</t>
+  </si>
+  <si>
+    <t>E930A</t>
+  </si>
+  <si>
+    <t>Temporary mass catering (fairs, festivals)</t>
+  </si>
+  <si>
+    <t>E950A</t>
+  </si>
+  <si>
+    <t>Transport</t>
+  </si>
+  <si>
+    <t>E800A</t>
+  </si>
+  <si>
+    <t>Travel (abroad)</t>
+  </si>
+  <si>
+    <t>E850A</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>E980A</t>
+  </si>
+  <si>
     <t>Veterinary activities</t>
   </si>
   <si>
     <t>E011A</t>
   </si>
   <si>
+    <t>Veterinary clinics</t>
+  </si>
+  <si>
+    <t>E013A</t>
+  </si>
+  <si>
+    <t>Water collection, treatment and supply</t>
+  </si>
+  <si>
+    <t>E400A</t>
+  </si>
+  <si>
+    <t>Water distribution system</t>
+  </si>
+  <si>
+    <t>E410A</t>
+  </si>
+  <si>
+    <t>Water source</t>
+  </si>
+  <si>
+    <t>E420A</t>
+  </si>
+  <si>
+    <t>Water transport</t>
+  </si>
+  <si>
+    <t>E830A</t>
+  </si>
+  <si>
+    <t>Water treatment plant</t>
+  </si>
+  <si>
+    <t>E430A</t>
+  </si>
+  <si>
+    <t>Wholesale</t>
+  </si>
+  <si>
+    <t>E510A</t>
+  </si>
+  <si>
+    <t>Wildlife Research Station</t>
+  </si>
+  <si>
+    <t>E190A</t>
+  </si>
+  <si>
     <t>Zoo</t>
   </si>
   <si>
     <t>E012A</t>
-  </si>
-  <si>
-    <t>Not specified</t>
-  </si>
-  <si>
-    <t>E098A</t>
-  </si>
-  <si>
-    <t>Other activities, n.e.c.</t>
-  </si>
-  <si>
-    <t>E099A</t>
-  </si>
-  <si>
-    <t>Primary production</t>
-  </si>
-  <si>
-    <t>E100A</t>
-  </si>
-  <si>
-    <t>Bee hives</t>
-  </si>
-  <si>
-    <t>E112A</t>
-  </si>
-  <si>
-    <t>Fishery activities</t>
-  </si>
-  <si>
-    <t>E150A</t>
-  </si>
-  <si>
-    <t>Fishing and fish processing</t>
-  </si>
-  <si>
-    <t>E151A</t>
-  </si>
-  <si>
-    <t>Aquaculture</t>
-  </si>
-  <si>
-    <t>E152A</t>
-  </si>
-  <si>
-    <t>Hatchery</t>
-  </si>
-  <si>
-    <t>E160A</t>
-  </si>
-  <si>
-    <t>Game handling estabilishment</t>
-  </si>
-  <si>
-    <t>E170A</t>
-  </si>
-  <si>
-    <t>Hunting</t>
-  </si>
-  <si>
-    <t>E180A</t>
-  </si>
-  <si>
-    <t>Hospital or medical care facility</t>
-  </si>
-  <si>
-    <t>E210A</t>
-  </si>
-  <si>
-    <t>Residential institution (nursing home, prison, boarding school)</t>
-  </si>
-  <si>
-    <t>E220A</t>
-  </si>
-  <si>
-    <t>Household</t>
-  </si>
-  <si>
-    <t>E230A</t>
-  </si>
-  <si>
-    <t>School, kindergarten</t>
-  </si>
-  <si>
-    <t>E240A</t>
-  </si>
-  <si>
-    <t>Manufacturing</t>
-  </si>
-  <si>
-    <t>E300A</t>
-  </si>
-  <si>
-    <t>Processing plant</t>
-  </si>
-  <si>
-    <t>E301A</t>
-  </si>
-  <si>
-    <t>Meat processing</t>
-  </si>
-  <si>
-    <t>E310A</t>
-  </si>
-  <si>
-    <t>Slaughtering</t>
-  </si>
-  <si>
-    <t>E311A</t>
-  </si>
-  <si>
-    <t>Meat cutting</t>
-  </si>
-  <si>
-    <t>E312A</t>
-  </si>
-  <si>
-    <t>Meat mincing</t>
-  </si>
-  <si>
-    <t>E313A</t>
-  </si>
-  <si>
-    <t>Meat preparing</t>
-  </si>
-  <si>
-    <t>E314A</t>
-  </si>
-  <si>
-    <t>Mechanical separation of meat</t>
-  </si>
-  <si>
-    <t>E315A</t>
-  </si>
-  <si>
-    <t>Other meat processing activities</t>
-  </si>
-  <si>
-    <t>E319A</t>
-  </si>
-  <si>
-    <t>Fish processing</t>
-  </si>
-  <si>
-    <t>E320A</t>
-  </si>
-  <si>
-    <t>Fish freezing</t>
-  </si>
-  <si>
-    <t>E321A</t>
-  </si>
-  <si>
-    <t>Fish processing activities, other than freezing</t>
-  </si>
-  <si>
-    <t>E329A</t>
-  </si>
-  <si>
-    <t>Manufacture of prepared animal feeds</t>
-  </si>
-  <si>
-    <t>E350A</t>
-  </si>
-  <si>
-    <t>Manufacture of  compound feedingstuffs</t>
-  </si>
-  <si>
-    <t>E351A</t>
-  </si>
-  <si>
-    <t>Manufacture of feed additives and pre-mixtures</t>
-  </si>
-  <si>
-    <t>E352A</t>
-  </si>
-  <si>
-    <t>Manufacture of prepared petfoods</t>
-  </si>
-  <si>
-    <t>E353A</t>
-  </si>
-  <si>
-    <t>Feed mill</t>
-  </si>
-  <si>
-    <t>E354A</t>
-  </si>
-  <si>
-    <t>Other processing activities, N.E.C.</t>
-  </si>
-  <si>
-    <t>E355A</t>
-  </si>
-  <si>
-    <t>Water collection, treatment and supply</t>
-  </si>
-  <si>
-    <t>E400A</t>
-  </si>
-  <si>
-    <t>Distribution: wholesale and retail sale</t>
-  </si>
-  <si>
-    <t>E500A</t>
-  </si>
-  <si>
-    <t>Wholesale</t>
-  </si>
-  <si>
-    <t>E510A</t>
-  </si>
-  <si>
-    <t>Retail sale</t>
-  </si>
-  <si>
-    <t>E520A</t>
-  </si>
-  <si>
-    <t>Import activities</t>
-  </si>
-  <si>
-    <t>E530A</t>
-  </si>
-  <si>
-    <t>Packaging</t>
-  </si>
-  <si>
-    <t>E600A</t>
-  </si>
-  <si>
-    <t>Re-wrapping</t>
-  </si>
-  <si>
-    <t>E610A</t>
-  </si>
-  <si>
-    <t>Storage</t>
-  </si>
-  <si>
-    <t>E700A</t>
-  </si>
-  <si>
-    <t>Cold storage</t>
-  </si>
-  <si>
-    <t>E710A</t>
-  </si>
-  <si>
-    <t>Transport</t>
-  </si>
-  <si>
-    <t>E800A</t>
-  </si>
-  <si>
-    <t>Road transport</t>
-  </si>
-  <si>
-    <t>E810A</t>
-  </si>
-  <si>
-    <t>Rail transport</t>
-  </si>
-  <si>
-    <t>E820A</t>
-  </si>
-  <si>
-    <t>Water transport</t>
-  </si>
-  <si>
-    <t>E830A</t>
-  </si>
-  <si>
-    <t>Air transport</t>
-  </si>
-  <si>
-    <t>E840A</t>
-  </si>
-  <si>
-    <t>Catering</t>
-  </si>
-  <si>
-    <t>E900A</t>
-  </si>
-  <si>
-    <t>Mobile retailer, market-street vendor</t>
-  </si>
-  <si>
-    <t>E920A</t>
-  </si>
-  <si>
-    <t>Take-away or fast-food outlet</t>
-  </si>
-  <si>
-    <t>E930A</t>
-  </si>
-  <si>
-    <t>Canteen or workplace catering</t>
-  </si>
-  <si>
-    <t>E940A</t>
-  </si>
-  <si>
-    <t>Temporary mass catering (fairs, festivals)</t>
-  </si>
-  <si>
-    <t>E950A</t>
-  </si>
-  <si>
-    <t>Camp, picnic</t>
-  </si>
-  <si>
-    <t>E960A</t>
-  </si>
-  <si>
-    <t>Farming</t>
-  </si>
-  <si>
-    <t>E101A</t>
-  </si>
-  <si>
-    <t>Growing crops</t>
-  </si>
-  <si>
-    <t>E110A</t>
-  </si>
-  <si>
-    <t>Rearing of animals</t>
-  </si>
-  <si>
-    <t>E120A</t>
-  </si>
-  <si>
-    <t>Breeding</t>
-  </si>
-  <si>
-    <t>E121A</t>
-  </si>
-  <si>
-    <t>Support activities to agriculture</t>
-  </si>
-  <si>
-    <t>E130A</t>
-  </si>
-  <si>
-    <t>Support activities for crop production</t>
-  </si>
-  <si>
-    <t>E131A</t>
-  </si>
-  <si>
-    <t>Insemination</t>
-  </si>
-  <si>
-    <t>E132A</t>
-  </si>
-  <si>
-    <t>Other animal production support activity n.e.c</t>
-  </si>
-  <si>
-    <t>E139A</t>
-  </si>
-  <si>
-    <t>Restaurant, Cafe, Pub, Bar, Hotel, Catering service</t>
-  </si>
-  <si>
-    <t>E910A</t>
-  </si>
-  <si>
-    <t>Conservation Facilities</t>
-  </si>
-  <si>
-    <t>E720A</t>
-  </si>
-  <si>
-    <t>Water distribution system</t>
-  </si>
-  <si>
-    <t>E410A</t>
-  </si>
-  <si>
-    <t>Water source</t>
-  </si>
-  <si>
-    <t>E420A</t>
-  </si>
-  <si>
-    <t>Water treatment plant</t>
-  </si>
-  <si>
-    <t>E430A</t>
-  </si>
-  <si>
-    <t>Travel (abroad)</t>
-  </si>
-  <si>
-    <t>E850A</t>
-  </si>
-  <si>
-    <t>Disseminated cases</t>
-  </si>
-  <si>
-    <t>E970A</t>
-  </si>
-  <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>E980A</t>
-  </si>
-  <si>
-    <t>Catering on aircraft, ship, train</t>
-  </si>
-  <si>
-    <t>E990A</t>
-  </si>
-  <si>
-    <t>Veterinary clinics</t>
-  </si>
-  <si>
-    <t>E013A</t>
-  </si>
-  <si>
-    <t>Natural habitat</t>
-  </si>
-  <si>
-    <t>E191A</t>
-  </si>
-  <si>
-    <t>Wildlife Research Station</t>
-  </si>
-  <si>
-    <t>E190A</t>
   </si>
 </sst>
 </file>
